--- a/submit/python/output/out6.xlsx
+++ b/submit/python/output/out6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>議長 初めに 新型 コロナ 感染症で亡くなられた方々のご冥福を心よりお祈り申し上げます そして医療従事者をはじめ この感染症との闘いに尽力されている全ての方々に深い敬意を表します スポーツを通じて平和でより良い世界を築いていくことを目指して この総会の場で採択した 9000 穴2の下で 東京オリンピックパラリンピックが開催されました この夏も 開催には様々なご意見もありましたが 承知した開催国として責任 私やり遂げることができました</t>
+          <t>新しく お店を出さないでというテーマで話を始めていきます じゃあ 近い やる方いないですが 今回 ちょっと 僕するで何だか何だかいないですか 司会</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ことができました選手の素晴らしいパフォーマンスは多くの人々に感動をもたらし 世界中に 夢や希望を与えてくれました さらには 障がいのある人もない人も助け合って 共に生きる 共済 社会の実現に向け 心のバリアフリーの精神を世界に示すことができました そして人類が大きな困難に立ち向かう 中 この東京大会は世界の人々の団結を象徴する大会となりました 感動を届けてくれた アスリートの方々を讃えるとともに 皆さまに改めて感謝を申し上げます 議長は 例の前には 気候変動 経済たい 権威主義との競争</t>
+          <t>新しく お店を出すんなら何がいいか 僕まで 意見 出てないって意見 ある人としてください 意見てからでいい飲食店</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>権威主義との競争などともに取り組むべき多くの課題があります とりわけ 新型 コロナとの闘いは未曾有の健康危機をもたらし 人々の生活 そして世界のあり方を大きく変容させました 我々はこの危機をいかに乗り越え どのような未来を築いていくのか 本日はこのキッチンで世界の趨勢をも左右する課題に対する我が国の考えを皆様にお示ししたいと思います 議長 まずはいかにしてこの感染症を克服するかです 一人でも多くの方の命を守り 誰の健康も取り残さない これは 人間の安全保障やユニバーサル</t>
+          <t>仕事で家から僕は カードショップではカードがそれに何で出したいと思いました 誰かいませんかね</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ユニバーサルヘルスカバレッジを重視するワークに そしてわたくし 自身が 今回の感染症対応にあたって 一貫して 持ち続けてきた信念であります 我が国はこのための国際社会の取り組みを牽引していく決意です 中でも この感染症との闘いの 桐生 だとなるワクチンへの公平な アクセスが世界中で加工されることは極めて重要です 全ての国や地域が政治的 経済的な条件付けでなく 公平な形でワクチンを確保できる環境を作らなければなりませんこうしゃ 思い出 私は6月にワクチン サミット おかえりとともに 被災しました</t>
+          <t>八木書店 英語である店を作るなら 高級料亭かな理由は 高級料亭 だから自分の店で接待できるしたら接待できるほど走行 給料って だからさ 位の高い人物とか誘うわけやん 誘ったお客でくるわけ やんまー こねって言うかま 話聞かせてもらえるかもしれんし</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>被災しました 我が国からの16ドルを含め 途上国 人口の3割18億回ぶんのワクチン 確保に必要な資金 目標を大きく超える額を確保できました 加え コバックスなどを通じ 約2300万回ぶんの 日本製 ワクチンを各国 地域に供給してきました 本日 さらに追加し 合計6000万回ぶんを目途として供給することを証明いたします 同時にワクチンを各国 地域の最終会場まで確実に届けるための ラストワンマイル 支援を着実に進めていきます こうした取り組みを通じ 我が国は サンキュー 億ドル規模の試合</t>
+          <t>させてもらえるかもしれんしとなんか自分で高級持ってる 高級料亭 お好きな子 誘って 食いに行けるとかめちゃくちゃ 良くない 何か美味しいもん食えるし その なんか大衆向けな店ってほんまに 客室 選べん市 しょぼい タンクが低い店ってなんかほんまに 変なやつ多いからこうきそうだから 高給料って言っても金持ってるやつしか金からほんまに変な奴はこうへんわ まともなやつぐらいしか来なさそうやからかにお店が接客するしたとしてもそっちの方が楽 や し まくりやからそんな人数も一気にするわけでもないから 拡散も捌きやすいからお給料って</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>39 オクトの規模の支援を再開で実施してきましたが 引き続き 新型 コロナの克服に全力を尽くしてまいります 議長 次に我々の世界をより良い未来に導くために我が国が特に重視する4点について述べたいと思います 第一に強靭な 国際保険システムの構築です 我々は今回のパンデミックから学び 将来に備えて行かなければなりません 今回の経験から国際的な保健問題への対応にあたっては 地理的空白を作ってはならず すべての国 地域の情報や 知見が自由で透明な形で迅速に広く 共有されることが</t>
+          <t>白テニ 開いて高級なところにこだわったかな 今 お客の人で言えばカードショップはね もう やべえ奴らと来るオタクとか入ってないやつとか臭い もう使えば確実に属した高級料亭のがうまく再生しない 草なるしこのショップ やけど なんか 儲かりそうな 詐欺とか流行ってるし もう一つの理由の一つででしたがクソなんか料理とか奈良市 高の原 くって言っとるし なんか臭いけどそれがあり コレクター ちょっと退職した数</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>広く 共有されることが重要であると考えます こうした観点からバンクには Who の役割を重視してきており 引き続き Who の検証改革の議論に積極的に貢献してまいりま す また ユニバーサルヘルスカバレッジの重要性が再認識されたところでお家の公平な アクセス 社会的脆弱者の保護などを目指し ワークにはグローバルヘルス 戦略を策定し 国際社会と連携して地球規模での健康安全保障の新たな枠組みづくりに取り組む 考えです さらに 昨年 私がこの場で 提唱し個ぐらいの素で進んでいるあなたの時代の人間の安全</t>
+          <t>お薬 しますは人からも愛し合うようになりますか</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>タイの人間の安全保障の議論は 国際保健分野に限らず様々な世界の課題における今後の重要な指針となるものと期待しており 我が国も力強く支援していきます この人間の安全保障の理念に立脚したより 強靭 が 国際保険システムの構築には完成車おのみならず 栄養 水 衛生など幅広い分野での取り組みが重要です ワークには 12月に東京 栄養 サミット2021 を 久石 世界の人々の栄養改善を推進して参ります 第二日赤 たいのは グリーンで持続可能な社会の実現であります 気候変動問題は 人類全体で会計</t>
+          <t>薬がマイナスなら今 今</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>人類全体で解決を目指すべき 待ったなしの課題です 同時に 気候変動への取り組みは 新たな成長の原動力であり 持続可能な開発目標の達成にも不可欠です 我が国は2050年 カーボンニュートラルと整合的で野心的な目標として2030年度に温室効果ガスを2013年度から46%削減することを目指します さらに50%の高みに向けて挑戦を続けて参ります しような 排出 骨をはじめとする各国にもさらなる取り組みを期待します 世界の脱酸素化に向けては 心理支援を必要とする 途上国が取り残されてはなりません 2021年 んから25年の</t>
+          <t>理由としてはなんかあんまりお酒の専門店あんまりいないようなイメージがある島 基本的なスーパーのコーナーと一緒に何か出しているところが多いからそういうお酒の専門店もないからそういうのだしたらいいかなと思いました 鍵の専門店である酒屋はその専門的ではないという どちらかと言うとは 地域によってはその近くに 専門家がなかったりとかするところもあるから まで来たらまあ その あんまりその辺 持ってか集まってない地域にお店だすっていう設定で一応 前もっててって思っておりあるよ</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>から25年の5年間で 東証 国を含む 途上国に対し 官民 合わせて 約600ドル 相当の支援を実施していきます こうした取り組みを通じ バンクには世界の立つ 炭素化の実現 そしてグリーンで持続可能な社会づくりにリーダーシップを発揮して参ります 第3に奉納試合に基づく自由で開かれた国際秩序の重要性について強調したいと思います 地域 そして世界の平和と繁栄のため先人たちが築き上げてきた 自由民主 人権法の試合といった普遍的価値を貫徹して行かねばなりません私は力ではなく自由で開かれた国際通常ことが</t>
+          <t>鮭とかってほんまに地方とかに バラけてるよ 水がいいとか3時 近かったりとかそんなスーパーマーケットとかなんとかもお酒の種類 めちゃくちゃ 漆山 持ってきちゃったらやっぱり 酒屋 地酒 高尾 ゲット ろ剣とか それもう一度 県に一個か 2個か 3個ぐらい 絶対 酒屋あるからちょっとなんか 例えばあったらこの店は ワイン 専門とか 日本酒専門 とか なんか 種類が限られるようなことが多いと思うから だから何とか</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国際 痴*こそがその根底にあるべきと確信しています これを実現するためのビジョンが自由で開かれたインド 太平洋ですバンクには志を共にする 国 地域と緊密に連携しその実現に向け 戦略的に取り組んでいきます 同時に 我が国は引き続き 自由で公正な経済地域を作りの旗振り役を務めて参りますでいたら 分野でも保護主義や 内向き志向に対抗するため 信頼性のある自由なデータ流通を実現するためのルール作りにリーダーシップを発揮していく考えです デジタル空間の可能性を最大限活用する上で</t>
+          <t>3月とかいろんなやつなんか 比べる 神できるような感じにすれば</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>活用する上で あなたの技術が我々の普遍的価値を損なうために用いられることがあってはなりません バンクには自由で公正で安全なサイバー空間の実現に向けて 国連を始めた国間の議論に建設的に貢献するとともに asean諸国などへの能力構築支援を実施してまいります さらに適切な ルールの下でのインフラ整備 開発金融もより良い回復と成長には不可欠ですワークにはその高いインフラ投資のさらなる 普及 と 実際に取り組むとともに すべての国によって開発金融の国際ルールが遵守され 透明 公平性が</t>
+          <t>今飯 まとめるまとめ とかあんの これ これはなんかさっき出た新車 やと 俺のコレクターカードカードや 野菜だけのビーガンと高級料理とお酒の料理店で待ってないってのは思うの 多分好きなものやからみんな あれやろしまさき君が言ってた これって一番を止めた 終わったも何かあるんなら そのポイントとしてその水だから昨日にかけておいたとしたら</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>公平性が確保される環境作りをリードしてきます 大恩人より平和で安全な国際社会の実現について述べたいと思いますが 月には2022年 安保理常任理事国 選挙で 加盟国の支持を得て国際的な平和と安全の維持 そしてルールに基づく国際通常づくりに積極的に役割を果たしていく決意です 平和構築の取り組み も中止します 同時に安保理を21世紀の現実を反映したより効果的な組織に開脚するための交渉を具体的な形で買いすることを呼びかけますより平和で安全な世界のためには すべての国が軍備管理軍縮</t>
+          <t>今問題 新車としたらもう6月9日 そんなもん6-6 なきゃ こないよね この辺で何か美味しいお店は多分 ビーガン ビーガン ビーガンと俺のカードは高級料理店へ</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>軍備管理軍縮の国際的な取り組みに透明性をもった形で真摯に取り組むことが重要です 僕には唯一の戦争被爆国として立場の異なる国々の橋渡しに努め 核兵器のない世界 の実現に向けた国際社会の努力に貢献してまいります 核兵器不拡散条約について来年の運用検討会議での意義ある成果を目指します 人命を救う 軍縮とされる通常兵器の軍備管理軍縮にも引き続き 取り組んでまいります 同時に 我が国はインド 太平洋地域の平和と安定にも積極的に取り組んで参ります 緊迫した状況が続く かにさんが下手</t>
+          <t>チョッパーの客室っていうポイント ならまあ 働きでは思うなあ れあるやろ 市 高級料理店がちょっとあのそういう そういった点とか情報って書いたりできるしていうのもありで一番気持ちいいのか 狂うか なんか一番そのりって感じていいですか もう30分やべやべ 今からちょっと考え</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>アフガニスタン が再び テロの温床になることを食い止めなければなりません 人道支援機関の安全な活動を確保 助成などの権利を守ることが重要です タリバンがこれまで購入した約束を守るか否か 言葉ではなく行動を見ていきます 関係局機関とも 緊密に連携して参ります 戦犯の北朝鮮による弾道ミサイル発射は安保理決議の明白なんであり 避難 します 体調 線による最近の核ミサイル活動は我が国 地域 国際社会の平和と安全を脅かすものです 北朝鮮が邂逅的取り組みに関与し 非核化についての米長官の大和菓子に対する</t>
+          <t>天 専門店じゃないから どちらかというとは誰やったらお酒飲む人が多いと思うので やはり今近くに 専門店とか地元に えっと どちらかと言うと住んでるところから近くに 専門店があったら通いやすいと思うので まあ どちらかというとお酒の専門店が身近にあったらいいかなーって第三者として第3と第三者と変なフォローを入れたところでどこの あれは 会議は</t>
         </is>
       </c>
     </row>
@@ -684,56 +684,7 @@
           <t>15.wav</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>対話が進展することを強く期待します 北朝鮮による拉致問題は国際社会の重大な 関心事項であり 我が国の最重要課題でもあります 大事に 会社のご家族がご高齢となる中 拉致問題の解決は一刻の猶予もありませんは国としては引き続き日朝平壌宣言に基づき タッチ 核ミサイルと言った しょけんやんを包括的に解決し 不幸な過去を清算して 国交正常化を目指して行きます 日朝が実りある関係を有することは日中 双方の利益に合致するとともに地域の平和と安定にも繋がります メンバーについては民主主義や人権の実現と言う ミャンマーの</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>16.wav</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ミャンマーの人々の希望を後押しする努力を惜しみません 事態の打開に向けた あせらの取り組みを力強く支持するとともに 国際社会と緊密に連携してまいります 本日は 感染症の克服とより良い世界の実現に向けて我が国が負担していく 役割についてお話ししてまいりました その中で 私が一貫してチューしてきたのが 国際協調 そして 多国間主義です 自重 振り返れば10年前 東日本大震災によって未曾有の被害を受けたワークに対し 国際社会から多くの 温かい支援の手を差し伸べてくださり 我が国は復興の歩みを進めることが</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>17.wav</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>復興の歩みを進めることができました こうした経験は国際協調の重要性を再認識させてくれました 今後も世界が 局面する課題の解決 そして 国連が掲げる 顧問 アジェンダ の実現に向けた 交換 手技を一層推進してまいります その中で様々な地域のパートナーとの対話を重視して参ります 4月には太平洋島嶼国との太平洋志摩サミットを開催しました 来年 チュニジアで開催するテッド 8では日本とアメリカの協力関係を さらなる高みに押し上げていきたいと思います また わが国は来年 第6回国際女性会議 Word を開催します</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>18.wav</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>バグを開催します 国際社会 特に国連 女性 期間などと協力しつつ 世界におけるジェンダー平等の実現と女性のエンパワーメント促進を進めてまいります 皆様とともにこの危機を乗り越え 寄り 酔い回復 そしてその先の希望に満ちた世界を実現すべく バンクには全力で取り組む決意です ご清聴ありがとうございました</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
